--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.54166716790546965</v>
+        <v>0.54166715463041404</v>
       </c>
       <c r="C2">
-        <v>1.7390732600241543</v>
+        <v>1.7390732558895357</v>
       </c>
       <c r="D2">
-        <v>2.3298551307398743</v>
+        <v>2.329855125011294</v>
       </c>
       <c r="E2">
-        <v>3.9104661794761317</v>
+        <v>3.9104661722829142</v>
       </c>
       <c r="F2">
-        <v>1.3624566977097181</v>
+        <v>1.3624566979017141</v>
       </c>
       <c r="G2">
-        <v>0.38327109793819131</v>
+        <v>0.3832710948623827</v>
       </c>
       <c r="H2">
-        <v>1.1985149169577114</v>
+        <v>1.1985149052542914</v>
       </c>
       <c r="I2">
-        <v>1.6499068549416265</v>
+        <v>1.6499068548765463</v>
       </c>
       <c r="J2">
-        <v>3.1945596435991717</v>
+        <v>3.1945596408536399</v>
       </c>
       <c r="K2">
-        <v>0.76714336355501633</v>
+        <v>0.76714336005606198</v>
       </c>
       <c r="L2">
-        <v>0.73558155947139503</v>
+        <v>0.73558155497402722</v>
       </c>
       <c r="M2">
-        <v>-1.4436026847672263</v>
+        <v>-1.4436026911022566</v>
       </c>
       <c r="N2">
-        <v>1.9248622826379453</v>
+        <v>1.9248622795731511</v>
       </c>
       <c r="O2">
-        <v>1.4790042101539582</v>
+        <v>1.4790042065227196</v>
       </c>
       <c r="P2">
-        <v>2.5646492173988378</v>
+        <v>2.5646492095465598</v>
       </c>
       <c r="Q2">
-        <v>-6.1685040891337733E-3</v>
+        <v>-6.1685101139620164E-3</v>
       </c>
       <c r="R2">
-        <v>-0.92012669773406486</v>
+        <v>-0.92012669354727072</v>
       </c>
       <c r="S2">
-        <v>3.7033439281169298</v>
+        <v>3.7033439324984214</v>
       </c>
       <c r="T2">
-        <v>3.1392211076384262</v>
+        <v>3.1392211085003687</v>
       </c>
       <c r="U2">
-        <v>-0.29589214935563557</v>
+        <v>-0.29589215392432455</v>
       </c>
       <c r="V2">
-        <v>0.67810790367041374</v>
+        <v>0.67810790201715809</v>
       </c>
       <c r="W2">
-        <v>-1.4208437931163769</v>
+        <v>-1.4208438001043271</v>
       </c>
       <c r="X2">
-        <v>-1.3819217243873439E-2</v>
+        <v>-1.3819221979454696E-2</v>
       </c>
       <c r="Y2">
-        <v>3.4336894353919933</v>
+        <v>3.433689428636137</v>
       </c>
       <c r="Z2">
-        <v>2.0420581144898224</v>
+        <v>2.042058109454032</v>
       </c>
       <c r="AA2">
-        <v>4.2700789792110037</v>
+        <v>4.2700789681040803</v>
       </c>
       <c r="AB2">
-        <v>3.5515967634314256</v>
+        <v>3.5515967439403204</v>
       </c>
       <c r="AC2">
-        <v>-8.3717132383685902E-2</v>
+        <v>-8.3717132124093457E-2</v>
       </c>
       <c r="AD2">
-        <v>4.6233749008016218</v>
+        <v>4.6233748817989566</v>
       </c>
       <c r="AE2">
-        <v>1.2475675018911128</v>
+        <v>1.247567496761995</v>
       </c>
       <c r="AF2">
-        <v>2.3133497715045781</v>
+        <v>2.3133497625900343</v>
       </c>
       <c r="AG2">
-        <v>2.2772482162265528</v>
+        <v>2.2772482145396769</v>
       </c>
       <c r="AH2">
-        <v>2.2301565285080911</v>
+        <v>2.2301565231220883</v>
       </c>
       <c r="AI2">
-        <v>4.5864467615282507</v>
+        <v>4.5864467513495093</v>
       </c>
       <c r="AJ2">
-        <v>1.7959939131748832</v>
+        <v>1.7959939084303094</v>
       </c>
       <c r="AK2">
-        <v>2.4521485237685248</v>
+        <v>2.4521485175410649</v>
       </c>
       <c r="AL2">
-        <v>-0.9185379462891573</v>
+        <v>-0.918537949487782</v>
       </c>
       <c r="AM2">
-        <v>2.4007012384674598</v>
+        <v>2.4007012284638218</v>
       </c>
       <c r="AN2">
-        <v>2.3613830070022943</v>
+        <v>2.3613830017413324</v>
       </c>
       <c r="AO2">
-        <v>4.3475209229571545</v>
+        <v>4.3475209121858063</v>
       </c>
       <c r="AP2">
-        <v>2.7747202225369123</v>
+        <v>2.7747202175636922</v>
       </c>
       <c r="AQ2">
-        <v>-1.0543777422869964</v>
+        <v>-1.0543777440885971</v>
       </c>
       <c r="AR2">
-        <v>3.984540193884742</v>
+        <v>3.9845401916299421</v>
       </c>
       <c r="AS2">
-        <v>2.9132391413473608</v>
+        <v>2.913239136238603</v>
       </c>
       <c r="AT2">
-        <v>1.534761310611479</v>
+        <v>1.534761303376708</v>
       </c>
       <c r="AU2">
-        <v>2.0538185207678583</v>
+        <v>2.0538185188450053</v>
       </c>
       <c r="AV2">
-        <v>0.77040138330984653</v>
+        <v>0.77040136346663524</v>
       </c>
       <c r="AW2">
-        <v>1.0001657817928684</v>
+        <v>1.0001657745736618</v>
       </c>
       <c r="AX2">
-        <v>3.1526639518498705</v>
+        <v>3.1526639445009614</v>
       </c>
       <c r="AY2">
-        <v>3.9291435793576341</v>
+        <v>3.9291435749347707</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.7717248434579744</v>
+        <v>1.7717248128992023</v>
       </c>
       <c r="C3">
-        <v>1.4263612840892421</v>
+        <v>1.4263612767479454</v>
       </c>
       <c r="D3">
-        <v>3.4844254038466125</v>
+        <v>3.4844253832631447</v>
       </c>
       <c r="E3">
-        <v>3.1389908425447768</v>
+        <v>3.1389908381768605</v>
       </c>
       <c r="F3">
-        <v>1.1281340260952855</v>
+        <v>1.1281340192715501</v>
       </c>
       <c r="G3">
-        <v>2.5075585175604935</v>
+        <v>2.5075585105654672</v>
       </c>
       <c r="H3">
-        <v>-0.52935006523351402</v>
+        <v>-0.52935006291649189</v>
       </c>
       <c r="I3">
-        <v>0.65492450460276597</v>
+        <v>0.65492450157862214</v>
       </c>
       <c r="J3">
-        <v>3.6336408697465785</v>
+        <v>3.6336408570116996</v>
       </c>
       <c r="K3">
-        <v>4.8653286281763259</v>
+        <v>4.8653286267025946</v>
       </c>
       <c r="L3">
-        <v>2.9899291537379749</v>
+        <v>2.9899291474747547</v>
       </c>
       <c r="M3">
-        <v>-6.837996895062004E-2</v>
+        <v>-6.8400687230368629E-2</v>
       </c>
       <c r="N3">
-        <v>1.6688906401766239</v>
+        <v>1.6688906381123014</v>
       </c>
       <c r="O3">
-        <v>-2.6782641575569612</v>
+        <v>-2.6782641567363159</v>
       </c>
       <c r="P3">
-        <v>2.7563532992813147</v>
+        <v>2.7563532904941779</v>
       </c>
       <c r="Q3">
-        <v>0.97557372813952425</v>
+        <v>0.97557372219334459</v>
       </c>
       <c r="R3">
-        <v>-0.18180823935395046</v>
+        <v>-0.18180824594415326</v>
       </c>
       <c r="S3">
-        <v>3.1627970746108165</v>
+        <v>3.1627970687633282</v>
       </c>
       <c r="T3">
-        <v>3.1947763919226291</v>
+        <v>3.1947763871476713</v>
       </c>
       <c r="U3">
-        <v>1.7994179325835216</v>
+        <v>1.7994179259918606</v>
       </c>
       <c r="V3">
-        <v>1.7741877934565968</v>
+        <v>1.7741877956415499</v>
       </c>
       <c r="W3">
-        <v>0.30397438346870359</v>
+        <v>0.30397437330480032</v>
       </c>
       <c r="X3">
-        <v>-0.67316852809368621</v>
+        <v>-0.67316853162121315</v>
       </c>
       <c r="Y3">
-        <v>4.5217030757952559</v>
+        <v>4.5217030656736164</v>
       </c>
       <c r="Z3">
-        <v>2.4009924527049331</v>
+        <v>2.4009924472636182</v>
       </c>
       <c r="AA3">
-        <v>4.1138631061006707</v>
+        <v>4.1138630972838053</v>
       </c>
       <c r="AB3">
-        <v>3.2552670159607748</v>
+        <v>3.2552670075824497</v>
       </c>
       <c r="AC3">
-        <v>3.8288965444757594</v>
+        <v>3.8288965356940508</v>
       </c>
       <c r="AD3">
-        <v>4.4364145260720456</v>
+        <v>4.4364145210385324</v>
       </c>
       <c r="AE3">
-        <v>2.6587477874839918</v>
+        <v>2.6587477816076732</v>
       </c>
       <c r="AF3">
-        <v>2.4935436754068085</v>
+        <v>2.4935436657744026</v>
       </c>
       <c r="AG3">
-        <v>1.3029127874777968</v>
+        <v>1.3029127818572876</v>
       </c>
       <c r="AH3">
-        <v>0.46841084154422874</v>
+        <v>0.46841083624065644</v>
       </c>
       <c r="AI3">
-        <v>8.4398325034210675</v>
+        <v>8.4398324960075612</v>
       </c>
       <c r="AJ3">
-        <v>3.6445934246008935</v>
+        <v>3.6445934153687123</v>
       </c>
       <c r="AK3">
-        <v>2.6851618169733036</v>
+        <v>2.6851618095305225</v>
       </c>
       <c r="AL3">
-        <v>1.5671892229183686</v>
+        <v>1.5671892174217579</v>
       </c>
       <c r="AM3">
-        <v>2.2270203002093676</v>
+        <v>2.2270202844390838</v>
       </c>
       <c r="AN3">
-        <v>-2.2108008255812441</v>
+        <v>-2.2108008296620536</v>
       </c>
       <c r="AO3">
-        <v>4.0056696686099862</v>
+        <v>4.0056696543352608</v>
       </c>
       <c r="AP3">
-        <v>0.62492546558409046</v>
+        <v>0.6249254582732755</v>
       </c>
       <c r="AQ3">
-        <v>1.7437470443695073</v>
+        <v>1.7437470403283108</v>
       </c>
       <c r="AR3">
-        <v>5.2904048104904762</v>
+        <v>5.2904048042089107</v>
       </c>
       <c r="AS3">
-        <v>2.5106491204579537</v>
+        <v>2.510649117834526</v>
       </c>
       <c r="AT3">
-        <v>2.1707007938120091</v>
+        <v>2.170700786721159</v>
       </c>
       <c r="AU3">
-        <v>1.2255062034975899</v>
+        <v>1.2255062021533993</v>
       </c>
       <c r="AV3">
-        <v>0.67597355925938574</v>
+        <v>0.67597354759546369</v>
       </c>
       <c r="AW3">
-        <v>0.28124252115784792</v>
+        <v>0.28124251357591651</v>
       </c>
       <c r="AX3">
-        <v>1.9470082982281751</v>
+        <v>1.9470082929071204</v>
       </c>
       <c r="AY3">
-        <v>4.7401583235510403</v>
+        <v>4.7401583161920131</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_ind_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>0.54166715463041404</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.7390732558895357</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>2.329855125011294</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>3.9104661722829142</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.3624566979017141</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3832710948623827</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.1985149052542914</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.6499068548765463</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>3.1945596408536399</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.76714336005606198</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.73558155497402722</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-1.4436026911022566</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.9248622795731511</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.4790042065227196</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>2.5646492095465598</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>-6.1685101139620164E-3</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-0.92012669354727072</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>3.7033439324984214</v>
+        <v>2.2691767197603094</v>
       </c>
       <c r="T2">
         <v>3.1392211085003687</v>
@@ -588,55 +477,55 @@
         <v>2.042058109454032</v>
       </c>
       <c r="AA2">
-        <v>4.2700789681040803</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>3.5515967439403204</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>-8.3717132124093457E-2</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>4.6233748817989566</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>1.247567496761995</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>2.3133497625900343</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>2.2772482145396769</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>2.2301565231220883</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>4.5864467513495093</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1.7959939084303094</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>2.4521485175410649</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-0.918537949487782</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>2.4007012284638218</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>2.3613830017413324</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>4.3475209121858063</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.7747202175636922</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-1.0543777440885971</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>3.9845401916299421</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>1.7717248128992023</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.4263612767479454</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3.4844253832631447</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>3.1389908381768605</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.1281340192715501</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>2.5075585105654672</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>-0.52935006291649189</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.65492450157862214</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>3.6336408570116996</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>4.8653286267025946</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>2.9899291474747547</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-6.8400687230368629E-2</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.6688906381123014</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>-2.6782641567363159</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>2.7563532904941779</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.97557372219334459</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>-0.18180824594415326</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>3.1627970687633282</v>
@@ -743,55 +629,55 @@
         <v>2.4009924472636182</v>
       </c>
       <c r="AA3">
-        <v>4.1138630972838053</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>3.2552670075824497</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>3.8288965356940508</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>4.4364145210385324</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>2.6587477816076732</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.4935436657744026</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>1.3029127818572876</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.46841083624065644</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>8.4398324960075612</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>3.6445934153687123</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>2.6851618095305225</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>1.5671892174217579</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>2.2270202844390838</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-2.2108008296620536</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>4.0056696543352608</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.6249254582732755</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>1.7437470403283108</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>5.2904048042089107</v>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,11 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0.54166716790546965</v>
-      </c>
       <c r="C2">
-        <v>1.2662660423158765</v>
-      </c>
-      <c r="D2">
-        <v>2.3298551307398743</v>
+        <v>-0.92012669354727072</v>
       </c>
       <c r="E2">
-        <v>3.9104661794761317</v>
+        <v>-1.0543777440885971</v>
       </c>
       <c r="F2">
         <v>1.3624566977097181</v>
@@ -673,16 +662,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.7717248434579744</v>
+        <v>-1.3172335172622707</v>
       </c>
       <c r="C3">
-        <v>1.4263612840892421</v>
+        <v>-0.18180824594415326</v>
       </c>
       <c r="D3">
-        <v>3.4844254038466125</v>
+        <v>-2.0383289913388207</v>
       </c>
       <c r="E3">
-        <v>3.1389908425447768</v>
+        <v>1.930574663407584</v>
       </c>
       <c r="F3">
         <v>1.1281340260952855</v>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_ind_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.54166716790546965</v>
-      </c>
-      <c r="C2">
-        <v>1.2662660423158765</v>
+        <v>1.9341576716069004</v>
       </c>
       <c r="D2">
-        <v>2.3298551307398743</v>
-      </c>
-      <c r="E2">
-        <v>3.9104661794761317</v>
+        <v>2.7960150970981306</v>
       </c>
       <c r="F2">
         <v>1.3624566977097181</v>
@@ -664,16 +653,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.7717248434579744</v>
+        <v>1.6688906381123014</v>
       </c>
       <c r="C3">
-        <v>1.4263612840892421</v>
+        <v>-1.3172335172622707</v>
       </c>
       <c r="D3">
-        <v>3.4844254038466125</v>
+        <v>2.2270202844390838</v>
       </c>
       <c r="E3">
-        <v>4.3265038299921255</v>
+        <v>-2.0383289913388207</v>
       </c>
       <c r="F3">
         <v>1.1281340260952855</v>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_ind_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,139 +513,145 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>0.57827209418274295</v>
+      </c>
+      <c r="C2">
+        <v>1.2662660254863947</v>
+      </c>
+      <c r="D2">
+        <v>3.0266385010277665</v>
+      </c>
+      <c r="E2">
+        <v>4.1307032838035793</v>
+      </c>
+      <c r="F2">
+        <v>1.3624566979017141</v>
+      </c>
+      <c r="G2">
+        <v>1.2641541277831883</v>
+      </c>
+      <c r="H2">
+        <v>1.2552378050085149</v>
+      </c>
+      <c r="I2">
+        <v>2.4099413101664888</v>
+      </c>
+      <c r="J2">
+        <v>3.2296426695583405</v>
+      </c>
+      <c r="K2">
+        <v>0.9790025976869523</v>
+      </c>
+      <c r="L2">
+        <v>1.5268478787692383</v>
+      </c>
+      <c r="M2">
+        <v>-7.0811809160511718E-3</v>
+      </c>
+      <c r="N2">
         <v>1.9341576716069004</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>2.8825194939676559</v>
+      </c>
+      <c r="Q2">
+        <v>-6.1685101139620164E-3</v>
+      </c>
+      <c r="R2">
+        <v>-0.92012669354727072</v>
+      </c>
+      <c r="T2">
+        <v>2.5610041793522922</v>
+      </c>
+      <c r="U2">
+        <v>-5.404018140061248E-2</v>
+      </c>
+      <c r="V2">
+        <v>1.8622086837907097</v>
+      </c>
+      <c r="W2">
+        <v>-0.69681167292838064</v>
+      </c>
+      <c r="X2">
+        <v>0.33002975329647793</v>
+      </c>
+      <c r="Y2">
+        <v>3.5490294002208636</v>
+      </c>
+      <c r="Z2">
+        <v>2.042058109454032</v>
+      </c>
+      <c r="AA2">
+        <v>4.4015301213876725</v>
+      </c>
+      <c r="AB2">
+        <v>3.5515967439403204</v>
+      </c>
+      <c r="AC2">
+        <v>0.67941953226930529</v>
+      </c>
+      <c r="AD2">
+        <v>5.195029830884887</v>
+      </c>
+      <c r="AE2">
+        <v>1.247567496761995</v>
+      </c>
+      <c r="AF2">
+        <v>2.3133497625900343</v>
+      </c>
+      <c r="AG2">
+        <v>2.2807993860613061</v>
+      </c>
+      <c r="AH2">
+        <v>2.5735330537572936</v>
+      </c>
+      <c r="AI2">
+        <v>4.6802446937957587</v>
+      </c>
+      <c r="AJ2">
+        <v>2.2428521250747293</v>
+      </c>
+      <c r="AK2">
+        <v>2.8671269438563183</v>
+      </c>
+      <c r="AL2">
+        <v>-0.918537949487782</v>
+      </c>
+      <c r="AM2">
         <v>2.7960150970981306</v>
       </c>
-      <c r="F2">
-        <v>1.3624566977097181</v>
-      </c>
-      <c r="G2">
-        <v>1.2641541346092853</v>
-      </c>
-      <c r="H2">
-        <v>1.1985149169577114</v>
-      </c>
-      <c r="I2">
-        <v>2.3984900571761831</v>
-      </c>
-      <c r="J2">
-        <v>3.1945596435991717</v>
-      </c>
-      <c r="K2">
-        <v>0.76714336355501633</v>
-      </c>
-      <c r="L2">
-        <v>0.93280587788226321</v>
-      </c>
-      <c r="M2">
-        <v>-7.0811790896379186E-3</v>
-      </c>
-      <c r="N2">
-        <v>1.7794806110840806</v>
-      </c>
-      <c r="P2">
-        <v>2.8825195051576231</v>
-      </c>
-      <c r="Q2">
-        <v>-6.1685040891337733E-3</v>
-      </c>
-      <c r="R2">
-        <v>-0.92012669773406486</v>
-      </c>
-      <c r="T2">
-        <v>2.5610041786149904</v>
-      </c>
-      <c r="U2">
-        <v>-0.29589214935563557</v>
-      </c>
-      <c r="V2">
-        <v>1.2340998100736014</v>
-      </c>
-      <c r="W2">
-        <v>-1.4172478292278947</v>
-      </c>
-      <c r="X2">
-        <v>-1.3819217243873439E-2</v>
-      </c>
-      <c r="Y2">
-        <v>3.4336894353919933</v>
-      </c>
-      <c r="Z2">
-        <v>2.0420581144898224</v>
-      </c>
-      <c r="AA2">
-        <v>4.2700789792110037</v>
-      </c>
-      <c r="AB2">
-        <v>3.5515967634314256</v>
-      </c>
-      <c r="AC2">
-        <v>-8.3717132383685902E-2</v>
-      </c>
-      <c r="AD2">
-        <v>4.6233749008016218</v>
-      </c>
-      <c r="AE2">
-        <v>1.2475675018911128</v>
-      </c>
-      <c r="AF2">
-        <v>2.3133497715045781</v>
-      </c>
-      <c r="AG2">
-        <v>2.2772482162265528</v>
-      </c>
-      <c r="AH2">
-        <v>2.2301565285080911</v>
-      </c>
-      <c r="AI2">
-        <v>4.5864467615282507</v>
-      </c>
-      <c r="AJ2">
-        <v>1.7959939131748832</v>
-      </c>
-      <c r="AK2">
-        <v>2.4521485237685248</v>
-      </c>
-      <c r="AL2">
-        <v>-0.9185379462891573</v>
-      </c>
-      <c r="AM2">
-        <v>2.4007012384674598</v>
-      </c>
       <c r="AO2">
-        <v>4.3475209229571545</v>
+        <v>4.3475209121858063</v>
       </c>
       <c r="AP2">
-        <v>3.1931346880620679</v>
+        <v>3.1931346818904216</v>
       </c>
       <c r="AQ2">
-        <v>-1.0543777422869964</v>
+        <v>-1.0543777440885971</v>
       </c>
       <c r="AR2">
-        <v>3.984540193884742</v>
+        <v>4.052706793232197</v>
       </c>
       <c r="AS2">
-        <v>2.9132391413473608</v>
+        <v>2.913239136238603</v>
       </c>
       <c r="AT2">
-        <v>1.534761310611479</v>
+        <v>1.8471204829882899</v>
       </c>
       <c r="AU2">
-        <v>1.016715147764591</v>
+        <v>1.2239966871127752</v>
       </c>
       <c r="AV2">
-        <v>0.77966010868074043</v>
+        <v>2.3078674316224834</v>
       </c>
       <c r="AW2">
-        <v>1.0001657817928684</v>
+        <v>1.4089484009383082</v>
       </c>
       <c r="AX2">
-        <v>3.1526639518498705</v>
+        <v>3.3105359254764037</v>
       </c>
       <c r="AY2">
-        <v>3.9291435793576341</v>
+        <v>3.9291435749347707</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -653,154 +659,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>1.7717248128992023</v>
+      </c>
+      <c r="C3">
+        <v>1.6527588625563849</v>
+      </c>
+      <c r="D3">
+        <v>3.4844253832631447</v>
+      </c>
+      <c r="E3">
+        <v>4.3265038210976803</v>
+      </c>
+      <c r="F3">
+        <v>1.2848182698940034</v>
+      </c>
+      <c r="G3">
+        <v>2.7082731579343258</v>
+      </c>
+      <c r="H3">
+        <v>-0.52935006291649189</v>
+      </c>
+      <c r="I3">
+        <v>0.65492450157862214</v>
+      </c>
+      <c r="J3">
+        <v>3.6336408570116996</v>
+      </c>
+      <c r="K3">
+        <v>4.1560907167952319</v>
+      </c>
+      <c r="L3">
+        <v>2.9899291474747547</v>
+      </c>
+      <c r="M3">
+        <v>-0.65736301159951083</v>
+      </c>
+      <c r="N3">
         <v>1.6688906381123014</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>-1.3172335172622707</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>2.9134055468808215</v>
+      </c>
+      <c r="Q3">
+        <v>1.0689586276465455</v>
+      </c>
+      <c r="R3">
+        <v>0.41553391969771419</v>
+      </c>
+      <c r="S3">
+        <v>3.1627970687633282</v>
+      </c>
+      <c r="T3">
+        <v>3.291078351304292</v>
+      </c>
+      <c r="U3">
+        <v>1.7994179259918606</v>
+      </c>
+      <c r="V3">
+        <v>2.0842984568913994</v>
+      </c>
+      <c r="W3">
+        <v>0.31038044462466174</v>
+      </c>
+      <c r="X3">
+        <v>-0.67316853162121315</v>
+      </c>
+      <c r="Y3">
+        <v>4.5217030656736164</v>
+      </c>
+      <c r="Z3">
+        <v>2.450442097689026</v>
+      </c>
+      <c r="AA3">
+        <v>4.1138630972838053</v>
+      </c>
+      <c r="AB3">
+        <v>3.7511669042197728</v>
+      </c>
+      <c r="AC3">
+        <v>3.8288965356940508</v>
+      </c>
+      <c r="AD3">
+        <v>4.4364145210385324</v>
+      </c>
+      <c r="AE3">
+        <v>2.8993245019094629</v>
+      </c>
+      <c r="AF3">
+        <v>2.7274181328677334</v>
+      </c>
+      <c r="AG3">
+        <v>1.3029127818572876</v>
+      </c>
+      <c r="AH3">
+        <v>0.46841083624065644</v>
+      </c>
+      <c r="AI3">
+        <v>3.6095770526198883</v>
+      </c>
+      <c r="AJ3">
+        <v>3.6445934153687123</v>
+      </c>
+      <c r="AK3">
+        <v>2.6851618095305225</v>
+      </c>
+      <c r="AL3">
+        <v>2.1007207109581714</v>
+      </c>
+      <c r="AM3">
         <v>2.2270202844390838</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>-2.0383289913388207</v>
       </c>
-      <c r="F3">
-        <v>1.1281340260952855</v>
-      </c>
-      <c r="G3">
-        <v>2.5075585175604935</v>
-      </c>
-      <c r="H3">
-        <v>-0.52935006523351402</v>
-      </c>
-      <c r="I3">
-        <v>0.65492450460276597</v>
-      </c>
-      <c r="J3">
-        <v>3.6336408697465785</v>
-      </c>
-      <c r="K3">
-        <v>4.1560907178663991</v>
-      </c>
-      <c r="L3">
-        <v>2.9899291537379749</v>
-      </c>
-      <c r="M3">
-        <v>-0.96387456196265897</v>
-      </c>
-      <c r="N3">
-        <v>1.6688906401766239</v>
-      </c>
-      <c r="O3">
-        <v>-1.3172335167606883</v>
-      </c>
-      <c r="P3">
-        <v>2.7563532992813147</v>
-      </c>
-      <c r="Q3">
-        <v>0.97557372813952425</v>
-      </c>
-      <c r="R3">
-        <v>-0.18180823935395046</v>
-      </c>
-      <c r="S3">
-        <v>3.1627970746108165</v>
-      </c>
-      <c r="T3">
-        <v>3.1947763919226291</v>
-      </c>
-      <c r="U3">
-        <v>1.7994179325835216</v>
-      </c>
-      <c r="V3">
-        <v>2.0842984645160945</v>
-      </c>
-      <c r="W3">
-        <v>0.31038044766639988</v>
-      </c>
-      <c r="X3">
-        <v>-0.67316852809368621</v>
-      </c>
-      <c r="Y3">
-        <v>4.5217030757952559</v>
-      </c>
-      <c r="Z3">
-        <v>2.4009924527049331</v>
-      </c>
-      <c r="AA3">
-        <v>4.1138631061006707</v>
-      </c>
-      <c r="AB3">
-        <v>3.2552670159607748</v>
-      </c>
-      <c r="AC3">
-        <v>3.8288965444757594</v>
-      </c>
-      <c r="AD3">
-        <v>4.4364145260720456</v>
-      </c>
-      <c r="AE3">
-        <v>2.6587477874839918</v>
-      </c>
-      <c r="AF3">
-        <v>2.4935436754068085</v>
-      </c>
-      <c r="AG3">
-        <v>1.3029127874777968</v>
-      </c>
-      <c r="AH3">
-        <v>0.46841084154422874</v>
-      </c>
-      <c r="AI3">
-        <v>3.6095770656981183</v>
-      </c>
-      <c r="AJ3">
-        <v>3.6445934246008935</v>
-      </c>
-      <c r="AK3">
-        <v>2.6851618169733036</v>
-      </c>
-      <c r="AL3">
-        <v>1.5671892229183686</v>
-      </c>
-      <c r="AM3">
-        <v>2.2270203002093676</v>
-      </c>
-      <c r="AN3">
-        <v>-2.0383289868474304</v>
-      </c>
       <c r="AO3">
-        <v>4.0056696686099862</v>
+        <v>4.2908153329842058</v>
       </c>
       <c r="AP3">
-        <v>0.62492546558409046</v>
+        <v>0.72848294197873042</v>
       </c>
       <c r="AQ3">
-        <v>1.9305746652865223</v>
+        <v>2.1324821486706291</v>
       </c>
       <c r="AR3">
-        <v>5.2904048104904762</v>
+        <v>5.2904048042089107</v>
       </c>
       <c r="AS3">
-        <v>2.5106491204579537</v>
+        <v>2.6332835417857581</v>
       </c>
       <c r="AT3">
-        <v>2.1707007938120091</v>
+        <v>2.170700786721159</v>
       </c>
       <c r="AU3">
-        <v>1.2697740354677363</v>
+        <v>1.2697740340227572</v>
       </c>
       <c r="AV3">
-        <v>0.6812370919054398</v>
+        <v>0.68123708092271329</v>
       </c>
       <c r="AW3">
-        <v>0.28124252115784792</v>
+        <v>0.28124251357591651</v>
       </c>
       <c r="AX3">
-        <v>1.9470082982281751</v>
+        <v>1.9470082929071204</v>
       </c>
       <c r="AY3">
-        <v>4.7401583235510403</v>
+        <v>4.8055677915231065</v>
       </c>
     </row>
   </sheetData>
